--- a/Datos/1 input OTROS/data_procedencia_turistas.xlsx
+++ b/Datos/1 input OTROS/data_procedencia_turistas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irene\Desktop\Proyectos\EUSTAT\Data\Input 1 Otros\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{630EEF9C-E829-489F-B401-277264CB321B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5048D19D-039F-4738-B357-46327DCF046E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8B5D9208-73E7-48C6-A332-A88A018784EC}"/>
   </bookViews>
@@ -491,7 +491,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -520,13 +520,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>94</v>
+        <v>14545</v>
       </c>
       <c r="C2">
-        <v>57</v>
+        <v>13258</v>
       </c>
       <c r="D2">
-        <v>16</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -534,13 +534,13 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>97</v>
+        <v>13040</v>
       </c>
       <c r="C3">
-        <v>43</v>
+        <v>14101</v>
       </c>
       <c r="D3">
-        <v>8</v>
+        <v>525</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -548,13 +548,13 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>145</v>
+        <v>3722</v>
       </c>
       <c r="C4">
-        <v>38</v>
+        <v>3078</v>
       </c>
       <c r="D4">
-        <v>32</v>
+        <v>536</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -562,13 +562,13 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>50</v>
+        <v>6649</v>
       </c>
       <c r="C5">
-        <v>83</v>
+        <v>6894</v>
       </c>
       <c r="D5">
-        <v>22</v>
+        <v>3709</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -576,13 +576,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>34</v>
+        <v>3739</v>
       </c>
       <c r="C6">
-        <v>40</v>
+        <v>4357</v>
       </c>
       <c r="D6">
-        <v>13</v>
+        <v>948</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -590,13 +590,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>105</v>
+        <v>5869</v>
       </c>
       <c r="C7">
-        <v>107</v>
+        <v>7050</v>
       </c>
       <c r="D7">
-        <v>7</v>
+        <v>462</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -604,13 +604,13 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>57</v>
+        <v>6292</v>
       </c>
       <c r="C8">
-        <v>41</v>
+        <v>6903</v>
       </c>
       <c r="D8">
-        <v>12</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
@@ -618,13 +618,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>45</v>
+        <v>3510</v>
       </c>
       <c r="C9">
-        <v>43</v>
+        <v>3979</v>
       </c>
       <c r="D9">
-        <v>12</v>
+        <v>722</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
@@ -632,13 +632,13 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>104</v>
+        <v>24797</v>
       </c>
       <c r="C10">
-        <v>81</v>
+        <v>27500</v>
       </c>
       <c r="D10">
-        <v>42</v>
+        <v>5640</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
@@ -646,13 +646,13 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>53</v>
+        <v>2269</v>
       </c>
       <c r="C11">
-        <v>36</v>
+        <v>2789</v>
       </c>
       <c r="D11">
-        <v>11</v>
+        <v>400</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
@@ -660,13 +660,13 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>53</v>
+        <v>2540</v>
       </c>
       <c r="C12">
-        <v>31</v>
+        <v>2192</v>
       </c>
       <c r="D12">
-        <v>12</v>
+        <v>311</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
@@ -674,13 +674,13 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>114</v>
+        <v>87103</v>
       </c>
       <c r="C13">
-        <v>155</v>
+        <v>87168</v>
       </c>
       <c r="D13">
-        <v>120</v>
+        <v>59161</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
@@ -688,13 +688,13 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>101</v>
+        <v>35922</v>
       </c>
       <c r="C14">
-        <v>93</v>
+        <v>38453</v>
       </c>
       <c r="D14">
-        <v>53</v>
+        <v>7396</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
@@ -702,13 +702,13 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>39</v>
+        <v>1254</v>
       </c>
       <c r="C15">
-        <v>41</v>
+        <v>1668</v>
       </c>
       <c r="D15">
-        <v>29</v>
+        <v>213</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
@@ -716,13 +716,13 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>28</v>
+        <v>8300</v>
       </c>
       <c r="C16">
-        <v>61</v>
+        <v>8423</v>
       </c>
       <c r="D16">
-        <v>11</v>
+        <v>869</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
@@ -730,13 +730,13 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>42</v>
+        <v>15021</v>
       </c>
       <c r="C17">
-        <v>53</v>
+        <v>16187</v>
       </c>
       <c r="D17">
-        <v>26</v>
+        <v>3904</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
@@ -744,13 +744,13 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>57</v>
+        <v>12150</v>
       </c>
       <c r="C18">
-        <v>52</v>
+        <v>21091</v>
       </c>
       <c r="D18">
-        <v>43</v>
+        <v>3420</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
@@ -758,13 +758,13 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>43</v>
+        <v>405</v>
       </c>
       <c r="C19">
-        <v>26</v>
+        <v>587</v>
       </c>
       <c r="D19">
-        <v>6</v>
+        <v>224</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
@@ -772,13 +772,13 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>136</v>
+        <v>7402</v>
       </c>
       <c r="C20">
-        <v>152</v>
+        <v>8490</v>
       </c>
       <c r="D20">
-        <v>12</v>
+        <v>922</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
@@ -786,13 +786,13 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>49</v>
+        <v>10048</v>
       </c>
       <c r="C21">
-        <v>79</v>
+        <v>12134</v>
       </c>
       <c r="D21">
-        <v>49</v>
+        <v>5634</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
@@ -800,13 +800,13 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>129</v>
+        <v>4487</v>
       </c>
       <c r="C22">
-        <v>35</v>
+        <v>4820</v>
       </c>
       <c r="D22">
-        <v>28</v>
+        <v>449</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
@@ -814,13 +814,13 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>55</v>
+        <v>7312</v>
       </c>
       <c r="C23">
-        <v>68</v>
+        <v>7599</v>
       </c>
       <c r="D23">
-        <v>25</v>
+        <v>3982</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
@@ -828,13 +828,13 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>71</v>
+        <v>5676</v>
       </c>
       <c r="C24">
-        <v>27</v>
+        <v>5559</v>
       </c>
       <c r="D24">
-        <v>28</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
@@ -842,13 +842,13 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>1218</v>
+        <v>307748</v>
       </c>
       <c r="C25">
-        <v>980</v>
+        <v>319321</v>
       </c>
       <c r="D25">
-        <v>798</v>
+        <v>181544</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
@@ -856,13 +856,13 @@
         <v>28</v>
       </c>
       <c r="B26">
-        <v>172</v>
+        <v>9012</v>
       </c>
       <c r="C26">
-        <v>59</v>
+        <v>9208</v>
       </c>
       <c r="D26">
-        <v>26</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
@@ -870,13 +870,13 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>178</v>
+        <v>50556</v>
       </c>
       <c r="C27">
-        <v>256</v>
+        <v>61673</v>
       </c>
       <c r="D27">
-        <v>64</v>
+        <v>3753</v>
       </c>
     </row>
   </sheetData>
@@ -888,8 +888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54235206-00F8-407F-9700-29F28239B716}">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -907,200 +907,200 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>107</v>
+        <v>19146</v>
       </c>
       <c r="B2">
-        <v>70</v>
+        <v>19419</v>
       </c>
       <c r="C2">
-        <v>50</v>
+        <v>8546</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>97</v>
+        <v>17870</v>
       </c>
       <c r="B3">
-        <v>56</v>
+        <v>19304</v>
       </c>
       <c r="C3">
-        <v>32</v>
+        <v>10871</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>54</v>
+        <v>8073</v>
       </c>
       <c r="B4">
-        <v>54</v>
+        <v>8426</v>
       </c>
       <c r="C4">
-        <v>18</v>
+        <v>3856</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>36</v>
+        <v>4062</v>
       </c>
       <c r="B5">
-        <v>24</v>
+        <v>4652</v>
       </c>
       <c r="C5">
-        <v>12</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>53</v>
+        <v>4038</v>
       </c>
       <c r="B6">
-        <v>68</v>
+        <v>4709</v>
       </c>
       <c r="C6">
-        <v>21</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>24</v>
+        <v>5275</v>
       </c>
       <c r="B7">
-        <v>36</v>
+        <v>6169</v>
       </c>
       <c r="C7">
-        <v>44</v>
+        <v>2971</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>42</v>
+        <v>7982</v>
       </c>
       <c r="B8">
-        <v>48</v>
+        <v>8276</v>
       </c>
       <c r="C8">
-        <v>25</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>98</v>
+        <v>18075</v>
       </c>
       <c r="B9">
-        <v>75</v>
+        <v>19205</v>
       </c>
       <c r="C9">
-        <v>56</v>
+        <v>10109</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>102</v>
+        <v>53272</v>
       </c>
       <c r="B10">
-        <v>85</v>
+        <v>54836</v>
       </c>
       <c r="C10">
-        <v>81</v>
+        <v>33579</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>92</v>
+        <v>16887</v>
       </c>
       <c r="B11">
-        <v>85</v>
+        <v>16777</v>
       </c>
       <c r="C11">
-        <v>86</v>
+        <v>9246</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>79</v>
+        <v>3371</v>
       </c>
       <c r="B12">
-        <v>68</v>
+        <v>3287</v>
       </c>
       <c r="C12">
-        <v>24</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>26</v>
+        <v>10138</v>
       </c>
       <c r="B13">
-        <v>41</v>
+        <v>10322</v>
       </c>
       <c r="C13">
-        <v>37</v>
+        <v>4312</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>195</v>
+        <v>79656</v>
       </c>
       <c r="B14">
-        <v>104</v>
+        <v>82236</v>
       </c>
       <c r="C14">
-        <v>86</v>
+        <v>43842</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>35</v>
+        <v>3286</v>
       </c>
       <c r="B15">
-        <v>32</v>
+        <v>2854</v>
       </c>
       <c r="C15">
-        <v>14</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>59</v>
+        <v>10761</v>
       </c>
       <c r="B16">
-        <v>31</v>
+        <v>11134</v>
       </c>
       <c r="C16">
-        <v>29</v>
+        <v>8084</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>67</v>
+        <v>40495</v>
       </c>
       <c r="B17">
-        <v>68</v>
+        <v>42360</v>
       </c>
       <c r="C17">
-        <v>118</v>
+        <v>32523</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>26</v>
+        <v>4645</v>
       </c>
       <c r="B18">
-        <v>20</v>
+        <v>4863</v>
       </c>
       <c r="C18">
-        <v>52</v>
+        <v>3556</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>26</v>
+        <v>716</v>
       </c>
       <c r="B19">
-        <v>15</v>
+        <v>492</v>
       </c>
       <c r="C19">
-        <v>13</v>
+        <v>313</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
@@ -1111,15 +1111,15 @@
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22">
         <f>SUM(A2:A19)</f>
-        <v>1218</v>
+        <v>307748</v>
       </c>
       <c r="B22">
         <f>SUM(B2:B19)</f>
-        <v>980</v>
+        <v>319321</v>
       </c>
       <c r="C22">
         <f>SUM(C2:C19)</f>
-        <v>798</v>
+        <v>181544</v>
       </c>
     </row>
   </sheetData>
